--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>001887</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合E</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>166019</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>005983</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>上投摩根核心精选股票</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>88.17</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>8.49</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>530016</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信恒稳价值混合</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001320</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001320</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信丰盈回报灵活配置混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>92.40</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>671010</t>
+          <t>162214</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合A</t>
+          <t>泰达宏利领先中小盘混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011060</t>
+          <t>007678</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合C</t>
+          <t>泰达宏利品牌升级混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>162214</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰达宏利领先中小盘混合</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>530016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>建信恒稳价值混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007678</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰达宏利品牌升级混合A</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>83.55</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,1160 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3194,4 +3195,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3783,4 +3784,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3792,7 +3793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3803,17 +3804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3823,14 +3844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.33</v>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3839,14 +3882,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.1</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3855,14 +3920,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.109999999999999</v>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3871,13 +3958,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5027,7 +5028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5038,17 +5039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5058,14 +5079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.56</v>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5074,14 +5117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.33</v>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5090,14 +5155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.1</v>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5106,14 +5193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.109999999999999</v>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5122,13 +5231,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5540,7 +5541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5551,17 +5552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5571,14 +5592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5587,14 +5630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.56</v>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5603,14 +5668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5619,14 +5706,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.1</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5635,14 +5744,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.109999999999999</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5651,13 +5782,979 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3809</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>7.51</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>7.56</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.33</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>5.1</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>8.109999999999999</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.64</v>
       </c>
     </row>
@@ -600,6 +617,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2191,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3425,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4013,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5169,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6175,7 +7388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
+++ b/数据整理/stocks/A股/上证主板/603008-喜临门.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>5.94</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>7.51</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>7.56</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1.33</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.1</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>8.109999999999999</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,618 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1222,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010081</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013589</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010082</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1812,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2892,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4638,7 +6553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5226,7 +7141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6382,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7386,592 +9301,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5319</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4338</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1823</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1823</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5938</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4280</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3642</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3447</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3447</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1084</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>